--- a/GBP Bonds/Service Companies/Price Data/XS0093934635.xlsx
+++ b/GBP Bonds/Service Companies/Price Data/XS0093934635.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Renea\OneDrive\Documents\University of Bath\13. Dissertation\Data\GBP Bonds\Service Companies\Price Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D749B0CE-7A3B-4272-A373-DA1181AA604C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2F1082D-EAF9-49EE-A445-153CA1826702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,15 +16,15 @@
     <sheet name="Sheet 1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ASK">'Sheet 1'!$C$18:$C$38</definedName>
-    <definedName name="AYD">'Sheet 1'!$E$18:$E$38</definedName>
-    <definedName name="BID">'Sheet 1'!$B$18:$B$38</definedName>
-    <definedName name="BYC">'Sheet 1'!$F$18:$F$38</definedName>
-    <definedName name="BYD">'Sheet 1'!$D$18:$D$38</definedName>
-    <definedName name="DATE">'Sheet 1'!$A$18:$A$38</definedName>
+    <definedName name="ASK">'Sheet 1'!$C$18:$C$76</definedName>
+    <definedName name="AYD">'Sheet 1'!$E$18:$E$76</definedName>
+    <definedName name="BID">'Sheet 1'!$B$18:$B$76</definedName>
+    <definedName name="BYC">'Sheet 1'!$F$18:$F$76</definedName>
+    <definedName name="BYD">'Sheet 1'!$D$18:$D$76</definedName>
+    <definedName name="DATE">'Sheet 1'!$A$18:$A$76</definedName>
     <definedName name="filterValues">'Sheet 1'!$A$4:$A$6</definedName>
-    <definedName name="OAS_BID">'Sheet 1'!$H$18:$H$38</definedName>
-    <definedName name="phTableData">'Sheet 1'!$A$18:$H$38</definedName>
+    <definedName name="OAS_BID">'Sheet 1'!$H$18:$H$76</definedName>
+    <definedName name="phTableData">'Sheet 1'!$A$18:$H$76</definedName>
     <definedName name="phTableHeader">'Sheet 1'!$A$17:$H$17</definedName>
     <definedName name="phTableName">'Sheet 1'!$A$16:$A$16</definedName>
     <definedName name="sheetHeader">'Sheet 1'!$A$1:$A$1</definedName>
@@ -35,7 +35,7 @@
     <definedName name="statTableName">'Sheet 1'!$A$9:$A$9</definedName>
     <definedName name="statUpDownTableData">'Sheet 1'!$D$11:$E$13</definedName>
     <definedName name="statUpDownTableHeader">'Sheet 1'!$D$10:$E$10</definedName>
-    <definedName name="ZSPREAD">'Sheet 1'!$G$18:$G$38</definedName>
+    <definedName name="ZSPREAD">'Sheet 1'!$G$18:$G$76</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -44,19 +44,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
-    <t>GB009393463=RRPS | Price History                                          13-Feb-2023 23:23</t>
+    <t>GB009393463=RRPS | Price History                                          16-Feb-2023 19:15</t>
   </si>
   <si>
     <t>GB009393463=RRPS</t>
   </si>
   <si>
-    <t>Interval: Quarterly</t>
-  </si>
-  <si>
-    <t>History Period: 20 Years</t>
-  </si>
-  <si>
-    <t>GB009393463=RRPS Statistics     Quarterly     20 Years</t>
+    <t>Interval: Monthly</t>
+  </si>
+  <si>
+    <t>History Period: 28-Feb-2003 - 16-Feb-2023</t>
+  </si>
+  <si>
+    <t>GB009393463=RRPS Statistics     Monthly     28-Feb-2003 - 31-Dec-2009</t>
   </si>
   <si>
     <t>Price</t>
@@ -89,10 +89,10 @@
     <t>Period</t>
   </si>
   <si>
-    <t>20 Years</t>
-  </si>
-  <si>
-    <t>GB009393463=RRPS History     Quarterly     20 Years</t>
+    <t>28-Feb-2003 - 31-Dec-2009</t>
+  </si>
+  <si>
+    <t>GB009393463=RRPS History     Monthly     28-Feb-2003 - 31-Dec-2009</t>
   </si>
   <si>
     <t>Date</t>
@@ -751,7 +751,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -759,11 +759,11 @@
   <cols>
     <col min="1" max="1" width="20.6640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="8.109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="4" customWidth="1"/>
     <col min="4" max="4" width="6.33203125" style="4" customWidth="1"/>
     <col min="5" max="5" width="7.109375" style="4" customWidth="1"/>
     <col min="6" max="7" width="9.44140625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="23.77734375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="23" style="4" customWidth="1"/>
     <col min="9" max="9" width="9.109375" style="4" customWidth="1"/>
     <col min="10" max="16384" width="9.109375" style="4"/>
   </cols>
@@ -817,22 +817,22 @@
         <v>103.16</v>
       </c>
       <c r="C11" s="8">
-        <v>37711</v>
+        <v>37680</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="9">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G11" s="10">
-        <v>0.56152125279642096</v>
+        <v>0.51597908192911102</v>
       </c>
       <c r="H11" s="8">
-        <v>40178</v>
+        <v>40025</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -849,16 +849,16 @@
         <v>11</v>
       </c>
       <c r="E12" s="14">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="15">
-        <v>-0.415768770309561</v>
+        <v>-0.37951086027022402</v>
       </c>
       <c r="H12" s="13">
-        <v>39813</v>
+        <v>39752</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -866,7 +866,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="17">
-        <v>100.210411047619</v>
+        <v>100.13864613559301</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="16" t="s">
@@ -933,7 +933,7 @@
         <v>-4.3730000000000002</v>
       </c>
       <c r="F18" s="25">
-        <v>0.56152125279642096</v>
+        <v>0.21744186046511599</v>
       </c>
       <c r="G18" s="24">
         <v>406.4</v>
@@ -944,415 +944,1207 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="23">
-        <v>40086</v>
+        <v>40147</v>
       </c>
       <c r="B19" s="24">
-        <v>100.47067</v>
+        <v>100.06305999999999</v>
       </c>
       <c r="C19" s="24">
-        <v>100.72067</v>
+        <v>100.08806</v>
       </c>
       <c r="D19" s="24">
-        <v>2.6819999999999999</v>
+        <v>3.44</v>
       </c>
       <c r="E19" s="24">
-        <v>1.4990000000000001</v>
+        <v>2.8679999999999999</v>
       </c>
       <c r="F19" s="25">
-        <v>0.55839628123184204</v>
+        <v>0.26843657817109101</v>
       </c>
       <c r="G19" s="24">
-        <v>189.8</v>
-      </c>
-      <c r="H19" s="24"/>
+        <v>281.39999999999998</v>
+      </c>
+      <c r="H19" s="24">
+        <v>281.39999999999998</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="23">
-        <v>39994</v>
+        <v>40117</v>
       </c>
       <c r="B20" s="24">
-        <v>101.52625999999999</v>
+        <v>100.27907999999999</v>
       </c>
       <c r="C20" s="24">
-        <v>101.77625999999999</v>
+        <v>100.32908</v>
       </c>
       <c r="D20" s="24">
-        <v>1.7210000000000001</v>
+        <v>2.7120000000000002</v>
       </c>
       <c r="E20" s="24">
-        <v>1.1950000000000001</v>
+        <v>2.3210000000000002</v>
       </c>
       <c r="F20" s="25">
-        <v>-0.25722917565817899</v>
+        <v>1.1185682326621999E-2</v>
       </c>
       <c r="G20" s="24">
-        <v>55.5</v>
+        <v>197.2</v>
       </c>
       <c r="H20" s="24"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="23">
-        <v>39903</v>
+        <v>40086</v>
       </c>
       <c r="B21" s="24">
-        <v>101.93284</v>
+        <v>100.47067</v>
       </c>
       <c r="C21" s="24">
-        <v>102.18284</v>
+        <v>100.72067</v>
       </c>
       <c r="D21" s="24">
-        <v>2.3170000000000002</v>
+        <v>2.6819999999999999</v>
       </c>
       <c r="E21" s="24">
-        <v>1.9710000000000001</v>
+        <v>1.4990000000000001</v>
       </c>
       <c r="F21" s="25">
-        <v>-0.32172131147541</v>
+        <v>5.6321386372587497E-2</v>
       </c>
       <c r="G21" s="24">
-        <v>86.7</v>
+        <v>189.8</v>
       </c>
       <c r="H21" s="24"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="23">
-        <v>39813</v>
+        <v>40056</v>
       </c>
       <c r="B22" s="24">
-        <v>101.56493</v>
+        <v>100.72190999999999</v>
       </c>
       <c r="C22" s="24">
-        <v>101.81493</v>
+        <v>100.97190999999999</v>
       </c>
       <c r="D22" s="24">
-        <v>3.4159999999999999</v>
+        <v>2.5390000000000001</v>
       </c>
       <c r="E22" s="24">
-        <v>3.149</v>
+        <v>1.714</v>
       </c>
       <c r="F22" s="25">
-        <v>-0.415768770309561</v>
+        <v>-2.6830203142966601E-2</v>
       </c>
       <c r="G22" s="24">
-        <v>140.19999999999999</v>
+        <v>198.3</v>
       </c>
       <c r="H22" s="24"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="23">
-        <v>39721</v>
+        <v>40025</v>
       </c>
       <c r="B23" s="24">
-        <v>99.059759999999997</v>
+        <v>100.8897</v>
       </c>
       <c r="C23" s="24">
-        <v>99.159760000000006</v>
+        <v>101.1397</v>
       </c>
       <c r="D23" s="24">
-        <v>5.8470000000000004</v>
+        <v>2.609</v>
       </c>
       <c r="E23" s="24">
-        <v>5.7610000000000001</v>
+        <v>1.9550000000000001</v>
       </c>
       <c r="F23" s="25">
-        <v>-6.9245463228271201E-2</v>
+        <v>0.51597908192911102</v>
       </c>
       <c r="G23" s="24">
-        <v>61</v>
+        <v>179.5</v>
       </c>
       <c r="H23" s="24"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="23">
-        <v>39629</v>
+        <v>39994</v>
       </c>
       <c r="B24" s="24">
-        <v>98.262659999999997</v>
+        <v>101.52625999999999</v>
       </c>
       <c r="C24" s="24">
-        <v>98.362660000000005</v>
+        <v>101.77625999999999</v>
       </c>
       <c r="D24" s="24">
-        <v>6.282</v>
+        <v>1.7210000000000001</v>
       </c>
       <c r="E24" s="24">
-        <v>6.21</v>
+        <v>1.1950000000000001</v>
       </c>
       <c r="F24" s="25">
-        <v>0.207148347425058</v>
+        <v>-7.7706323687031106E-2</v>
       </c>
       <c r="G24" s="24">
-        <v>9</v>
+        <v>55.5</v>
       </c>
       <c r="H24" s="24"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="23">
-        <v>39538</v>
+        <v>39964</v>
       </c>
       <c r="B25" s="24">
-        <v>99.738799999999998</v>
+        <v>101.72432999999999</v>
       </c>
       <c r="C25" s="24">
-        <v>99.838800000000006</v>
+        <v>101.97432999999999</v>
       </c>
       <c r="D25" s="24">
-        <v>5.2039999999999997</v>
+        <v>1.8660000000000001</v>
       </c>
       <c r="E25" s="24">
-        <v>5.1429999999999998</v>
+        <v>1.419</v>
       </c>
       <c r="F25" s="25">
-        <v>-3.4508348794063101E-2</v>
+        <v>-9.8985997102848902E-2</v>
       </c>
       <c r="G25" s="24">
-        <v>17.8</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="H25" s="24"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="23">
-        <v>39447</v>
+        <v>39933</v>
       </c>
       <c r="B26" s="24">
-        <v>99.384119999999996</v>
+        <v>101.8347</v>
       </c>
       <c r="C26" s="24">
-        <v>99.484120000000004</v>
+        <v>102.0847</v>
       </c>
       <c r="D26" s="24">
-        <v>5.39</v>
+        <v>2.0710000000000002</v>
       </c>
       <c r="E26" s="24">
-        <v>5.3360000000000003</v>
+        <v>1.677</v>
       </c>
       <c r="F26" s="25">
-        <v>-5.5214723926380403E-2</v>
+        <v>-0.10617177384548999</v>
       </c>
       <c r="G26" s="24">
-        <v>18.489000000000001</v>
+        <v>72.7</v>
       </c>
       <c r="H26" s="24"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="23">
-        <v>39355</v>
+        <v>39903</v>
       </c>
       <c r="B27" s="24">
-        <v>98.640060000000005</v>
+        <v>101.93284</v>
       </c>
       <c r="C27" s="24">
-        <v>98.770060000000001</v>
+        <v>102.18284</v>
       </c>
       <c r="D27" s="24">
-        <v>5.7050000000000001</v>
+        <v>2.3170000000000002</v>
       </c>
       <c r="E27" s="24">
-        <v>5.6420000000000003</v>
+        <v>1.9710000000000001</v>
       </c>
       <c r="F27" s="25">
-        <v>-9.3004769475357699E-2</v>
+        <v>-0.13577023498694499</v>
       </c>
       <c r="G27" s="24">
-        <v>1.6839999999999999</v>
+        <v>86.7</v>
       </c>
       <c r="H27" s="24"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="23">
-        <v>39263</v>
+        <v>39872</v>
       </c>
       <c r="B28" s="24">
-        <v>97.169709999999995</v>
+        <v>101.86602999999999</v>
       </c>
       <c r="C28" s="24">
-        <v>97.299710000000005</v>
+        <v>102.11602999999999</v>
       </c>
       <c r="D28" s="24">
-        <v>6.29</v>
+        <v>2.681</v>
       </c>
       <c r="E28" s="24">
-        <v>6.2320000000000002</v>
+        <v>2.367</v>
       </c>
       <c r="F28" s="25">
-        <v>0.38790820829655798</v>
-      </c>
-      <c r="G28" s="24"/>
+        <v>-4.5907473309608503E-2</v>
+      </c>
+      <c r="G28" s="24">
+        <v>87.1</v>
+      </c>
       <c r="H28" s="24"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="23">
-        <v>39172</v>
+        <v>39844</v>
       </c>
       <c r="B29" s="24">
-        <v>98.332400000000007</v>
+        <v>101.95508</v>
       </c>
       <c r="C29" s="24">
-        <v>98.462400000000002</v>
-      </c>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="24"/>
+        <v>102.20508</v>
+      </c>
+      <c r="D29" s="24">
+        <v>2.81</v>
+      </c>
+      <c r="E29" s="24">
+        <v>2.5249999999999999</v>
+      </c>
+      <c r="F29" s="25">
+        <v>-0.177400468384075</v>
+      </c>
+      <c r="G29" s="24">
+        <v>127.5</v>
+      </c>
       <c r="H29" s="24"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="23">
-        <v>39082</v>
+        <v>39813</v>
       </c>
       <c r="B30" s="24">
-        <v>98.875569999999996</v>
+        <v>101.56493</v>
       </c>
       <c r="C30" s="24">
-        <v>99.005570000000006</v>
-      </c>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="24"/>
+        <v>101.81493</v>
+      </c>
+      <c r="D30" s="24">
+        <v>3.4159999999999999</v>
+      </c>
+      <c r="E30" s="24">
+        <v>3.149</v>
+      </c>
+      <c r="F30" s="25">
+        <v>0.33646322378716698</v>
+      </c>
+      <c r="G30" s="24">
+        <v>140.19999999999999</v>
+      </c>
       <c r="H30" s="24"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="23">
-        <v>38990</v>
+        <v>39782</v>
       </c>
       <c r="B31" s="24">
-        <v>99.798829999999995</v>
+        <v>102.58825</v>
       </c>
       <c r="C31" s="24">
-        <v>99.958830000000006</v>
-      </c>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="24"/>
+        <v>102.68825</v>
+      </c>
+      <c r="D31" s="24">
+        <v>2.556</v>
+      </c>
+      <c r="E31" s="24">
+        <v>2.4609999999999999</v>
+      </c>
+      <c r="F31" s="25">
+        <v>-0.29547960308709997</v>
+      </c>
+      <c r="G31" s="24">
+        <v>-17.600000000000001</v>
+      </c>
       <c r="H31" s="24"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="23">
-        <v>38898</v>
+        <v>39752</v>
       </c>
       <c r="B32" s="24">
-        <v>99.70317</v>
+        <v>101.56773</v>
       </c>
       <c r="C32" s="24">
-        <v>99.863169999999997</v>
-      </c>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="24"/>
+        <v>101.66773000000001</v>
+      </c>
+      <c r="D32" s="24">
+        <v>3.6280000000000001</v>
+      </c>
+      <c r="E32" s="24">
+        <v>3.5390000000000001</v>
+      </c>
+      <c r="F32" s="25">
+        <v>-0.37951086027022402</v>
+      </c>
+      <c r="G32" s="24">
+        <v>-12.8</v>
+      </c>
       <c r="H32" s="24"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="23">
-        <v>38807</v>
+        <v>39721</v>
       </c>
       <c r="B33" s="24">
-        <v>100.65638</v>
+        <v>99.059759999999997</v>
       </c>
       <c r="C33" s="24">
-        <v>100.81638</v>
+        <v>99.159760000000006</v>
       </c>
       <c r="D33" s="24">
-        <v>4.532</v>
+        <v>5.8470000000000004</v>
       </c>
       <c r="E33" s="24">
-        <v>4.4880000000000004</v>
+        <v>5.7610000000000001</v>
       </c>
       <c r="F33" s="25">
-        <v>2.3306401491613401E-4</v>
-      </c>
-      <c r="G33" s="24"/>
+        <v>1.68695652173914E-2</v>
+      </c>
+      <c r="G33" s="24">
+        <v>61</v>
+      </c>
       <c r="H33" s="24"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="23">
-        <v>38717</v>
+        <v>39691</v>
       </c>
       <c r="B34" s="24">
-        <v>101.917222</v>
+        <v>99.113230000000001</v>
       </c>
       <c r="C34" s="24">
-        <v>102.07722200000001</v>
+        <v>99.213229999999996</v>
       </c>
       <c r="D34" s="24">
-        <v>4.5309439999999999</v>
+        <v>5.75</v>
       </c>
       <c r="E34" s="24">
-        <v>4.4873750000000001</v>
+        <v>5.6689999999999996</v>
       </c>
       <c r="F34" s="25">
-        <v>-1.1142732431252699E-2</v>
-      </c>
-      <c r="G34" s="24"/>
+        <v>-1.7262006494616299E-2</v>
+      </c>
+      <c r="G34" s="24">
+        <v>42</v>
+      </c>
       <c r="H34" s="24"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="23">
-        <v>38625</v>
+        <v>39660</v>
       </c>
       <c r="B35" s="24">
-        <v>101.65324</v>
+        <v>98.927130000000005</v>
       </c>
       <c r="C35" s="24">
-        <v>101.85324</v>
+        <v>99.02713</v>
       </c>
       <c r="D35" s="24">
-        <v>4.5819999999999999</v>
+        <v>5.851</v>
       </c>
       <c r="E35" s="24">
-        <v>4.5309999999999997</v>
-      </c>
-      <c r="F35" s="25"/>
-      <c r="G35" s="24"/>
+        <v>5.7750000000000004</v>
+      </c>
+      <c r="F35" s="25">
+        <v>-6.8608723336517005E-2</v>
+      </c>
+      <c r="G35" s="24">
+        <v>31</v>
+      </c>
       <c r="H35" s="24"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="23">
-        <v>38533</v>
+        <v>39629</v>
       </c>
       <c r="B36" s="24">
-        <v>102.25</v>
+        <v>98.262659999999997</v>
       </c>
       <c r="C36" s="24">
-        <v>102.45</v>
-      </c>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="24"/>
+        <v>98.362660000000005</v>
+      </c>
+      <c r="D36" s="24">
+        <v>6.282</v>
+      </c>
+      <c r="E36" s="24">
+        <v>6.21</v>
+      </c>
+      <c r="F36" s="25">
+        <v>4.3348281016442503E-2</v>
+      </c>
+      <c r="G36" s="24">
+        <v>9</v>
+      </c>
       <c r="H36" s="24"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="23">
-        <v>37894</v>
+        <v>39599</v>
       </c>
       <c r="B37" s="24">
-        <v>100.32</v>
-      </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="24"/>
+        <v>98.554119999999998</v>
+      </c>
+      <c r="C37" s="24">
+        <v>98.654120000000006</v>
+      </c>
+      <c r="D37" s="24">
+        <v>6.0209999999999999</v>
+      </c>
+      <c r="E37" s="24">
+        <v>5.952</v>
+      </c>
+      <c r="F37" s="25">
+        <v>0.102141680395387</v>
+      </c>
+      <c r="G37" s="24">
+        <v>8.6</v>
+      </c>
       <c r="H37" s="24"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="23">
-        <v>37711</v>
+        <v>39568</v>
       </c>
       <c r="B38" s="24">
+        <v>99.345659999999995</v>
+      </c>
+      <c r="C38" s="24">
+        <v>99.445660000000004</v>
+      </c>
+      <c r="D38" s="24">
+        <v>5.4630000000000001</v>
+      </c>
+      <c r="E38" s="24">
+        <v>5.3979999999999997</v>
+      </c>
+      <c r="F38" s="25">
+        <v>4.9769408147578902E-2</v>
+      </c>
+      <c r="G38" s="24">
+        <v>16.2</v>
+      </c>
+      <c r="H38" s="24"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="23">
+        <v>39538</v>
+      </c>
+      <c r="B39" s="24">
+        <v>99.738799999999998</v>
+      </c>
+      <c r="C39" s="24">
+        <v>99.838800000000006</v>
+      </c>
+      <c r="D39" s="24">
+        <v>5.2039999999999997</v>
+      </c>
+      <c r="E39" s="24">
+        <v>5.1429999999999998</v>
+      </c>
+      <c r="F39" s="25">
+        <v>4.0591881623675101E-2</v>
+      </c>
+      <c r="G39" s="24">
+        <v>17.8</v>
+      </c>
+      <c r="H39" s="24"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="23">
+        <v>39507</v>
+      </c>
+      <c r="B40" s="24">
+        <v>100.08077</v>
+      </c>
+      <c r="C40" s="24">
+        <v>100.18077</v>
+      </c>
+      <c r="D40" s="24">
+        <v>5.0010000000000003</v>
+      </c>
+      <c r="E40" s="24">
+        <v>4.9429999999999996</v>
+      </c>
+      <c r="F40" s="25">
+        <v>-6.3658490919303506E-2</v>
+      </c>
+      <c r="G40" s="24">
+        <v>10.1</v>
+      </c>
+      <c r="H40" s="24"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="23">
+        <v>39478</v>
+      </c>
+      <c r="B41" s="24">
+        <v>99.486819999999994</v>
+      </c>
+      <c r="C41" s="24">
+        <v>99.586820000000003</v>
+      </c>
+      <c r="D41" s="24">
+        <v>5.3410000000000002</v>
+      </c>
+      <c r="E41" s="24">
+        <v>5.2850000000000001</v>
+      </c>
+      <c r="F41" s="25">
+        <v>-9.0909090909090003E-3</v>
+      </c>
+      <c r="G41" s="24">
+        <v>43.41</v>
+      </c>
+      <c r="H41" s="24"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="23">
+        <v>39447</v>
+      </c>
+      <c r="B42" s="24">
+        <v>99.384119999999996</v>
+      </c>
+      <c r="C42" s="24">
+        <v>99.484120000000004</v>
+      </c>
+      <c r="D42" s="24">
+        <v>5.39</v>
+      </c>
+      <c r="E42" s="24">
+        <v>5.3360000000000003</v>
+      </c>
+      <c r="F42" s="25">
+        <v>-1.20967741935485E-2</v>
+      </c>
+      <c r="G42" s="24">
+        <v>18.489000000000001</v>
+      </c>
+      <c r="H42" s="24"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="23">
+        <v>39416</v>
+      </c>
+      <c r="B43" s="24">
+        <v>99.233419999999995</v>
+      </c>
+      <c r="C43" s="24">
+        <v>99.363420000000005</v>
+      </c>
+      <c r="D43" s="24">
+        <v>5.4560000000000004</v>
+      </c>
+      <c r="E43" s="24">
+        <v>5.3890000000000002</v>
+      </c>
+      <c r="F43" s="25">
+        <v>-7.7131258457374702E-2</v>
+      </c>
+      <c r="G43" s="24">
+        <v>-3.238</v>
+      </c>
+      <c r="H43" s="24"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="23">
+        <v>39386</v>
+      </c>
+      <c r="B44" s="24">
+        <v>98.291839999999993</v>
+      </c>
+      <c r="C44" s="24">
+        <v>98.421840000000003</v>
+      </c>
+      <c r="D44" s="24">
+        <v>5.9119999999999999</v>
+      </c>
+      <c r="E44" s="24">
+        <v>5.8460000000000001</v>
+      </c>
+      <c r="F44" s="25">
+        <v>3.6283961437335602E-2</v>
+      </c>
+      <c r="G44" s="24">
+        <v>17.997</v>
+      </c>
+      <c r="H44" s="24"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="23">
+        <v>39355</v>
+      </c>
+      <c r="B45" s="24">
+        <v>98.640060000000005</v>
+      </c>
+      <c r="C45" s="24">
+        <v>98.770060000000001</v>
+      </c>
+      <c r="D45" s="24">
+        <v>5.7050000000000001</v>
+      </c>
+      <c r="E45" s="24">
+        <v>5.6420000000000003</v>
+      </c>
+      <c r="F45" s="25">
+        <v>-6.9482955472190494E-2</v>
+      </c>
+      <c r="G45" s="24">
+        <v>1.6839999999999999</v>
+      </c>
+      <c r="H45" s="24"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="23">
+        <v>39325</v>
+      </c>
+      <c r="B46" s="24">
+        <v>97.688850000000002</v>
+      </c>
+      <c r="C46" s="24">
+        <v>97.818849999999998</v>
+      </c>
+      <c r="D46" s="24">
+        <v>6.1310000000000002</v>
+      </c>
+      <c r="E46" s="24">
+        <v>6.07</v>
+      </c>
+      <c r="F46" s="25">
+        <v>-6.8038231005993497E-3</v>
+      </c>
+      <c r="G46" s="24">
+        <v>2.4180000000000001</v>
+      </c>
+      <c r="H46" s="24"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="23">
+        <v>39294</v>
+      </c>
+      <c r="B47" s="24">
+        <v>97.512240000000006</v>
+      </c>
+      <c r="C47" s="24">
+        <v>97.642240000000001</v>
+      </c>
+      <c r="D47" s="24">
+        <v>6.173</v>
+      </c>
+      <c r="E47" s="24">
+        <v>6.1130000000000004</v>
+      </c>
+      <c r="F47" s="25">
+        <v>-1.8600953895071499E-2</v>
+      </c>
+      <c r="G47" s="24">
+        <v>-2.496</v>
+      </c>
+      <c r="H47" s="24"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="23">
+        <v>39263</v>
+      </c>
+      <c r="B48" s="24">
+        <v>97.169709999999995</v>
+      </c>
+      <c r="C48" s="24">
+        <v>97.299710000000005</v>
+      </c>
+      <c r="D48" s="24">
+        <v>6.29</v>
+      </c>
+      <c r="E48" s="24">
+        <v>6.2320000000000002</v>
+      </c>
+      <c r="F48" s="25">
+        <v>3.64145658263305E-2</v>
+      </c>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="23">
+        <v>39233</v>
+      </c>
+      <c r="B49" s="24">
+        <v>97.597009999999997</v>
+      </c>
+      <c r="C49" s="24">
+        <v>97.727010000000007</v>
+      </c>
+      <c r="D49" s="24">
+        <v>6.069</v>
+      </c>
+      <c r="E49" s="24">
+        <v>6.0129999999999999</v>
+      </c>
+      <c r="F49" s="25">
+        <v>4.4758133930108399E-2</v>
+      </c>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="23">
+        <v>39202</v>
+      </c>
+      <c r="B50" s="24">
+        <v>98.146720000000002</v>
+      </c>
+      <c r="C50" s="24">
+        <v>98.276719999999997</v>
+      </c>
+      <c r="D50" s="24">
+        <v>5.8090000000000002</v>
+      </c>
+      <c r="E50" s="24">
+        <v>5.7549999999999999</v>
+      </c>
+      <c r="F50" s="25">
+        <v>0.28177405119152699</v>
+      </c>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="23">
+        <v>39172</v>
+      </c>
+      <c r="B51" s="24">
+        <v>98.332400000000007</v>
+      </c>
+      <c r="C51" s="24">
+        <v>98.462400000000002</v>
+      </c>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="23">
+        <v>39141</v>
+      </c>
+      <c r="B52" s="24">
+        <v>98.610200000000006</v>
+      </c>
+      <c r="C52" s="24">
+        <v>98.740200000000002</v>
+      </c>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="23">
+        <v>39113</v>
+      </c>
+      <c r="B53" s="24">
+        <v>98.174719999999994</v>
+      </c>
+      <c r="C53" s="24">
+        <v>98.304720000000003</v>
+      </c>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="24"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="23">
+        <v>39082</v>
+      </c>
+      <c r="B54" s="24">
+        <v>98.875569999999996</v>
+      </c>
+      <c r="C54" s="24">
+        <v>99.005570000000006</v>
+      </c>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="23">
+        <v>39051</v>
+      </c>
+      <c r="B55" s="24">
+        <v>99.415689999999998</v>
+      </c>
+      <c r="C55" s="24">
+        <v>99.575689999999994</v>
+      </c>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="23">
+        <v>39021</v>
+      </c>
+      <c r="B56" s="24">
+        <v>99.397180000000006</v>
+      </c>
+      <c r="C56" s="24">
+        <v>99.557180000000002</v>
+      </c>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="23">
+        <v>38990</v>
+      </c>
+      <c r="B57" s="24">
+        <v>99.798829999999995</v>
+      </c>
+      <c r="C57" s="24">
+        <v>99.958830000000006</v>
+      </c>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="23">
+        <v>38960</v>
+      </c>
+      <c r="B58" s="24">
+        <v>99.747240000000005</v>
+      </c>
+      <c r="C58" s="24">
+        <v>99.907240000000002</v>
+      </c>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="23">
+        <v>38929</v>
+      </c>
+      <c r="B59" s="24">
+        <v>99.910719999999998</v>
+      </c>
+      <c r="C59" s="24">
+        <v>100.07071999999999</v>
+      </c>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="24"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="23">
+        <v>38898</v>
+      </c>
+      <c r="B60" s="24">
+        <v>99.70317</v>
+      </c>
+      <c r="C60" s="24">
+        <v>99.863169999999997</v>
+      </c>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="24"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="23">
+        <v>38868</v>
+      </c>
+      <c r="B61" s="24">
+        <v>99.971310000000003</v>
+      </c>
+      <c r="C61" s="24">
+        <v>100.13131</v>
+      </c>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="24"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="23">
+        <v>38837</v>
+      </c>
+      <c r="B62" s="24">
+        <v>100.06467000000001</v>
+      </c>
+      <c r="C62" s="24">
+        <v>100.22467</v>
+      </c>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="23">
+        <v>38807</v>
+      </c>
+      <c r="B63" s="24">
+        <v>100.65638</v>
+      </c>
+      <c r="C63" s="24">
+        <v>100.81638</v>
+      </c>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="24"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="23">
+        <v>38776</v>
+      </c>
+      <c r="B64" s="24">
+        <v>101.36218</v>
+      </c>
+      <c r="C64" s="24">
+        <v>101.52218000000001</v>
+      </c>
+      <c r="D64" s="24"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="24"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="23">
+        <v>38748</v>
+      </c>
+      <c r="B65" s="24">
+        <v>101.46966999999999</v>
+      </c>
+      <c r="C65" s="24">
+        <v>101.62967</v>
+      </c>
+      <c r="D65" s="24">
+        <v>4.532</v>
+      </c>
+      <c r="E65" s="24">
+        <v>4.4880000000000004</v>
+      </c>
+      <c r="F65" s="25">
+        <v>2.3306401491613401E-4</v>
+      </c>
+      <c r="G65" s="24"/>
+      <c r="H65" s="24"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="23">
+        <v>38717</v>
+      </c>
+      <c r="B66" s="24">
+        <v>101.917222</v>
+      </c>
+      <c r="C66" s="24">
+        <v>102.07722200000001</v>
+      </c>
+      <c r="D66" s="24">
+        <v>4.5309439999999999</v>
+      </c>
+      <c r="E66" s="24">
+        <v>4.4873750000000001</v>
+      </c>
+      <c r="F66" s="25">
+        <v>-1.50121739130434E-2</v>
+      </c>
+      <c r="G66" s="24"/>
+      <c r="H66" s="24"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="23">
+        <v>38686</v>
+      </c>
+      <c r="B67" s="24">
+        <v>101.51253</v>
+      </c>
+      <c r="C67" s="24">
+        <v>101.71253</v>
+      </c>
+      <c r="D67" s="24">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E67" s="24">
+        <v>4.5469999999999997</v>
+      </c>
+      <c r="F67" s="25">
+        <v>3.9284155390658703E-3</v>
+      </c>
+      <c r="G67" s="24"/>
+      <c r="H67" s="24"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="23">
+        <v>38656</v>
+      </c>
+      <c r="B68" s="24">
+        <v>101.49469999999999</v>
+      </c>
+      <c r="C68" s="24">
+        <v>101.6947</v>
+      </c>
+      <c r="D68" s="24"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="24"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="23">
+        <v>38625</v>
+      </c>
+      <c r="B69" s="24">
+        <v>101.65324</v>
+      </c>
+      <c r="C69" s="24">
+        <v>101.85324</v>
+      </c>
+      <c r="D69" s="24">
+        <v>4.5819999999999999</v>
+      </c>
+      <c r="E69" s="24">
+        <v>4.5309999999999997</v>
+      </c>
+      <c r="F69" s="25">
+        <v>-1.3775290572535501E-2</v>
+      </c>
+      <c r="G69" s="24"/>
+      <c r="H69" s="24"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="23">
+        <v>38595</v>
+      </c>
+      <c r="B70" s="24">
+        <v>101.593</v>
+      </c>
+      <c r="C70" s="24">
+        <v>101.79300000000001</v>
+      </c>
+      <c r="D70" s="24">
+        <v>4.6459999999999999</v>
+      </c>
+      <c r="E70" s="24">
+        <v>4.5949999999999998</v>
+      </c>
+      <c r="F70" s="25"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="24"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="23">
+        <v>38564</v>
+      </c>
+      <c r="B71" s="24">
+        <v>102.02</v>
+      </c>
+      <c r="C71" s="24">
+        <v>102.22</v>
+      </c>
+      <c r="D71" s="24"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="24"/>
+      <c r="H71" s="24"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="23">
+        <v>38533</v>
+      </c>
+      <c r="B72" s="24">
+        <v>102.25</v>
+      </c>
+      <c r="C72" s="24">
+        <v>102.45</v>
+      </c>
+      <c r="D72" s="24"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="24"/>
+      <c r="H72" s="24"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="23">
+        <v>38503</v>
+      </c>
+      <c r="B73" s="24">
+        <v>101.56</v>
+      </c>
+      <c r="C73" s="24">
+        <v>101.76</v>
+      </c>
+      <c r="D73" s="24"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="24"/>
+      <c r="H73" s="24"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="23">
+        <v>38472</v>
+      </c>
+      <c r="B74" s="24">
+        <v>99.99</v>
+      </c>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="24"/>
+      <c r="H74" s="24"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="23">
+        <v>37864</v>
+      </c>
+      <c r="B75" s="24">
+        <v>100.32</v>
+      </c>
+      <c r="C75" s="24"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="24"/>
+      <c r="H75" s="24"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" s="23">
+        <v>37680</v>
+      </c>
+      <c r="B76" s="24">
         <v>103.16</v>
       </c>
-      <c r="C38" s="24">
+      <c r="C76" s="24">
         <v>103.56</v>
       </c>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="24"/>
+      <c r="H76" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="3">
